--- a/lab2Stats/Calculations.xlsx
+++ b/lab2Stats/Calculations.xlsx
@@ -148,34 +148,34 @@
         <v>#NUM!</v>
       </c>
       <c r="C2" t="n" s="0">
-        <v>0.08575586070772259</v>
+        <v>-0.09788877699989817</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>0.5618782570667403</v>
+        <v>0.5995716189063668</v>
       </c>
       <c r="E2" t="n" s="0">
-        <v>1.9783054874278605</v>
+        <v>1.9804216655902565</v>
       </c>
       <c r="F2" t="n" s="0">
         <v>100.0</v>
       </c>
       <c r="G2" t="n" s="0">
-        <v>6.552068306815342</v>
+        <v>-6.125029214605373</v>
       </c>
       <c r="H2" t="n" s="0">
-        <v>0.08223250319802218</v>
+        <v>-0.10164849743667966</v>
       </c>
       <c r="I2" t="n" s="0">
-        <v>0.089279218217423</v>
+        <v>-0.0941290565631167</v>
       </c>
       <c r="J2" t="n" s="0">
-        <v>0.315707175764358</v>
+        <v>0.3594861261980016</v>
       </c>
       <c r="K2" t="n" s="0">
-        <v>0.9832735722884536</v>
+        <v>0.9896778012625873</v>
       </c>
       <c r="L2" t="n" s="0">
-        <v>-0.9950319151394069</v>
+        <v>-0.9907438643276691</v>
       </c>
     </row>
     <row r="3">
@@ -183,37 +183,37 @@
         <v>1</v>
       </c>
       <c r="B3" t="n" s="0">
-        <v>0.5490716333494366</v>
+        <v>0.5977237470428487</v>
       </c>
       <c r="C3" t="n" s="0">
-        <v>0.5981925273873964</v>
+        <v>0.6388558059917381</v>
       </c>
       <c r="D3" t="n" s="0">
-        <v>0.2088419802184494</v>
+        <v>0.20196853796132072</v>
       </c>
       <c r="E3" t="n" s="0">
-        <v>0.8995421954413824</v>
+        <v>0.8404195163944491</v>
       </c>
       <c r="F3" t="n" s="0">
         <v>100.0</v>
       </c>
       <c r="G3" t="n" s="0">
-        <v>0.3491216801563302</v>
+        <v>0.3161410385052252</v>
       </c>
       <c r="H3" t="n" s="0">
-        <v>0.5968829466195185</v>
+        <v>0.6375893263655925</v>
       </c>
       <c r="I3" t="n" s="0">
-        <v>0.5995021081552743</v>
+        <v>0.6401222856178836</v>
       </c>
       <c r="J3" t="n" s="0">
-        <v>0.04361497270156321</v>
+        <v>0.040791290326233444</v>
       </c>
       <c r="K3" t="n" s="0">
-        <v>0.9917113389539829</v>
+        <v>0.9662961962314939</v>
       </c>
       <c r="L3" t="n" s="0">
-        <v>0.09216914351260054</v>
+        <v>0.12587667983704473</v>
       </c>
     </row>
     <row r="4">
@@ -224,34 +224,34 @@
         <v>#NUM!</v>
       </c>
       <c r="C4" t="n" s="0">
-        <v>2.2377693211459815</v>
+        <v>1.981847883691786</v>
       </c>
       <c r="D4" t="n" s="0">
-        <v>3.0187694628076245</v>
+        <v>2.902409311795181</v>
       </c>
       <c r="E4" t="n" s="0">
-        <v>14.539280728964417</v>
+        <v>16.861218413676205</v>
       </c>
       <c r="F4" t="n" s="0">
         <v>100.0</v>
       </c>
       <c r="G4" t="n" s="0">
-        <v>1.3490083335585663</v>
+        <v>1.4644965114015578</v>
       </c>
       <c r="H4" t="n" s="0">
-        <v>2.2188395905093783</v>
+        <v>1.9636478100702806</v>
       </c>
       <c r="I4" t="n" s="0">
-        <v>2.2566990517825847</v>
+        <v>2.0000479573132917</v>
       </c>
       <c r="J4" t="n" s="0">
-        <v>9.112969069579835</v>
+        <v>8.423979813195375</v>
       </c>
       <c r="K4" t="n" s="0">
-        <v>10.625527530777841</v>
+        <v>10.880631609149617</v>
       </c>
       <c r="L4" t="n" s="0">
-        <v>-3.9137531981865763</v>
+        <v>-5.980586804526586</v>
       </c>
     </row>
   </sheetData>
@@ -283,13 +283,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="n" s="0">
-        <v>0.315707175764358</v>
+        <v>0.3594861261980016</v>
       </c>
       <c r="C2" t="n" s="0">
-        <v>0.010352502365498943</v>
+        <v>4.643260177846532E-4</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>0.29473446657327257</v>
+        <v>-0.13852540678511263</v>
       </c>
     </row>
     <row r="3">
@@ -297,13 +297,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n" s="0">
-        <v>0.010352502365498943</v>
+        <v>4.643260177846532E-4</v>
       </c>
       <c r="C3" t="n" s="0">
-        <v>0.0436149727015632</v>
+        <v>0.04079129032623348</v>
       </c>
       <c r="D3" t="n" s="0">
-        <v>0.01230734702769087</v>
+        <v>0.0219676017345743</v>
       </c>
     </row>
     <row r="4">
@@ -311,13 +311,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="n" s="0">
-        <v>0.29473446657327257</v>
+        <v>-0.13852540678511263</v>
       </c>
       <c r="C4" t="n" s="0">
-        <v>0.01230734702769087</v>
+        <v>0.0219676017345743</v>
       </c>
       <c r="D4" t="n" s="0">
-        <v>9.112969069579835</v>
+        <v>8.423979813195373</v>
       </c>
     </row>
   </sheetData>

--- a/lab2Stats/Calculations.xlsx
+++ b/lab2Stats/Calculations.xlsx
@@ -148,34 +148,34 @@
         <v>#NUM!</v>
       </c>
       <c r="C2" t="n" s="0">
-        <v>-0.09788877699989817</v>
+        <v>0.08575586070772259</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>0.5995716189063668</v>
+        <v>0.5618782570667403</v>
       </c>
       <c r="E2" t="n" s="0">
-        <v>1.9804216655902565</v>
+        <v>1.9783054874278605</v>
       </c>
       <c r="F2" t="n" s="0">
         <v>100.0</v>
       </c>
       <c r="G2" t="n" s="0">
-        <v>-6.125029214605373</v>
+        <v>6.552068306815342</v>
       </c>
       <c r="H2" t="n" s="0">
-        <v>-0.10164849743667966</v>
+        <v>0.08223250319802218</v>
       </c>
       <c r="I2" t="n" s="0">
-        <v>-0.0941290565631167</v>
+        <v>0.089279218217423</v>
       </c>
       <c r="J2" t="n" s="0">
-        <v>0.3594861261980016</v>
+        <v>0.315707175764358</v>
       </c>
       <c r="K2" t="n" s="0">
-        <v>0.9896778012625873</v>
+        <v>0.9832735722884536</v>
       </c>
       <c r="L2" t="n" s="0">
-        <v>-0.9907438643276691</v>
+        <v>-0.9950319151394069</v>
       </c>
     </row>
     <row r="3">
@@ -183,37 +183,37 @@
         <v>1</v>
       </c>
       <c r="B3" t="n" s="0">
-        <v>0.5977237470428487</v>
+        <v>0.5490716333494366</v>
       </c>
       <c r="C3" t="n" s="0">
-        <v>0.6388558059917381</v>
+        <v>0.5981925273873964</v>
       </c>
       <c r="D3" t="n" s="0">
-        <v>0.20196853796132072</v>
+        <v>0.2088419802184494</v>
       </c>
       <c r="E3" t="n" s="0">
-        <v>0.8404195163944491</v>
+        <v>0.8995421954413824</v>
       </c>
       <c r="F3" t="n" s="0">
         <v>100.0</v>
       </c>
       <c r="G3" t="n" s="0">
-        <v>0.3161410385052252</v>
+        <v>0.3491216801563302</v>
       </c>
       <c r="H3" t="n" s="0">
-        <v>0.6375893263655925</v>
+        <v>0.5968829466195185</v>
       </c>
       <c r="I3" t="n" s="0">
-        <v>0.6401222856178836</v>
+        <v>0.5995021081552743</v>
       </c>
       <c r="J3" t="n" s="0">
-        <v>0.040791290326233444</v>
+        <v>0.04361497270156321</v>
       </c>
       <c r="K3" t="n" s="0">
-        <v>0.9662961962314939</v>
+        <v>0.9917113389539829</v>
       </c>
       <c r="L3" t="n" s="0">
-        <v>0.12587667983704473</v>
+        <v>0.09216914351260054</v>
       </c>
     </row>
     <row r="4">
@@ -224,34 +224,34 @@
         <v>#NUM!</v>
       </c>
       <c r="C4" t="n" s="0">
-        <v>1.981847883691786</v>
+        <v>2.2377693211459815</v>
       </c>
       <c r="D4" t="n" s="0">
-        <v>2.902409311795181</v>
+        <v>3.0187694628076245</v>
       </c>
       <c r="E4" t="n" s="0">
-        <v>16.861218413676205</v>
+        <v>14.539280728964417</v>
       </c>
       <c r="F4" t="n" s="0">
         <v>100.0</v>
       </c>
       <c r="G4" t="n" s="0">
-        <v>1.4644965114015578</v>
+        <v>1.3490083335585663</v>
       </c>
       <c r="H4" t="n" s="0">
-        <v>1.9636478100702806</v>
+        <v>2.2188395905093783</v>
       </c>
       <c r="I4" t="n" s="0">
-        <v>2.0000479573132917</v>
+        <v>2.2566990517825847</v>
       </c>
       <c r="J4" t="n" s="0">
-        <v>8.423979813195375</v>
+        <v>9.112969069579835</v>
       </c>
       <c r="K4" t="n" s="0">
-        <v>10.880631609149617</v>
+        <v>10.625527530777841</v>
       </c>
       <c r="L4" t="n" s="0">
-        <v>-5.980586804526586</v>
+        <v>-3.9137531981865763</v>
       </c>
     </row>
   </sheetData>
@@ -283,13 +283,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="n" s="0">
-        <v>0.3594861261980016</v>
+        <v>0.315707175764358</v>
       </c>
       <c r="C2" t="n" s="0">
-        <v>4.643260177846532E-4</v>
+        <v>0.010352502365498943</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>-0.13852540678511263</v>
+        <v>0.29473446657327257</v>
       </c>
     </row>
     <row r="3">
@@ -297,13 +297,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n" s="0">
-        <v>4.643260177846532E-4</v>
+        <v>0.010352502365498943</v>
       </c>
       <c r="C3" t="n" s="0">
-        <v>0.04079129032623348</v>
+        <v>0.0436149727015632</v>
       </c>
       <c r="D3" t="n" s="0">
-        <v>0.0219676017345743</v>
+        <v>0.01230734702769087</v>
       </c>
     </row>
     <row r="4">
@@ -311,13 +311,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="n" s="0">
-        <v>-0.13852540678511263</v>
+        <v>0.29473446657327257</v>
       </c>
       <c r="C4" t="n" s="0">
-        <v>0.0219676017345743</v>
+        <v>0.01230734702769087</v>
       </c>
       <c r="D4" t="n" s="0">
-        <v>8.423979813195373</v>
+        <v>9.112969069579835</v>
       </c>
     </row>
   </sheetData>
